--- a/桃園103.xlsx
+++ b/桃園103.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -38,28 +38,34 @@
     <t>F</t>
   </si>
   <si>
-    <t>研究所肄業</t>
-  </si>
-  <si>
-    <t>大學肄業</t>
-  </si>
-  <si>
-    <t>大專肄業</t>
-  </si>
-  <si>
-    <t>高中(職)肄業</t>
-  </si>
-  <si>
-    <t>國中肄業</t>
-  </si>
-  <si>
-    <t>國小肄業</t>
-  </si>
-  <si>
     <t>自修</t>
   </si>
   <si>
     <t>不識字</t>
+  </si>
+  <si>
+    <t>研究所</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大學</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大專</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高中(職)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>國中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>國小</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -226,38 +232,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -535,142 +548,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
+      <selection activeCell="G12" sqref="G12:K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" width="10.83203125" style="12"/>
+    <col min="1" max="4" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>17286</v>
+      </c>
+      <c r="C2" s="2">
+        <v>11092</v>
+      </c>
+      <c r="D2" s="3">
+        <v>6194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>68824</v>
+      </c>
+      <c r="C3" s="2">
+        <v>33608</v>
+      </c>
+      <c r="D3" s="3">
+        <v>35216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8">
+        <v>42119</v>
+      </c>
+      <c r="C4" s="9">
+        <v>20867</v>
+      </c>
+      <c r="D4" s="10">
+        <v>21252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="11">
+        <v>820303</v>
+      </c>
+      <c r="C5" s="11">
+        <v>37688</v>
+      </c>
+      <c r="D5" s="11">
+        <v>44342</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>31014</v>
+      </c>
+      <c r="C6" s="2">
+        <v>14546</v>
+      </c>
+      <c r="D6" s="3">
+        <v>16468</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2">
+        <v>27093</v>
+      </c>
+      <c r="C7" s="2">
+        <v>8897</v>
+      </c>
+      <c r="D7" s="3">
+        <v>18196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5">
-        <v>5173</v>
-      </c>
-      <c r="C2" s="5">
-        <v>3005</v>
-      </c>
-      <c r="D2" s="6">
-        <v>2168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="B8" s="2">
+        <v>793</v>
+      </c>
+      <c r="C8" s="2">
+        <v>245</v>
+      </c>
+      <c r="D8" s="3">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5">
-        <v>26498</v>
-      </c>
-      <c r="C3" s="5">
-        <v>14166</v>
-      </c>
-      <c r="D3" s="6">
-        <v>12332</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7">
-        <v>5398</v>
-      </c>
-      <c r="C4" s="8">
-        <v>2584</v>
-      </c>
-      <c r="D4" s="9">
-        <v>2814</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="31" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="7">
-        <v>28341</v>
-      </c>
-      <c r="C5" s="8">
-        <v>15447</v>
-      </c>
-      <c r="D5" s="9">
-        <v>12894</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="5">
-        <v>5216</v>
-      </c>
-      <c r="C6" s="5">
-        <v>2647</v>
-      </c>
-      <c r="D6" s="6">
-        <v>2569</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="5">
-        <v>3096</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1093</v>
-      </c>
-      <c r="D7" s="6">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="5">
-        <v>793</v>
-      </c>
-      <c r="C8" s="5">
-        <v>245</v>
-      </c>
-      <c r="D8" s="6">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="10">
+      <c r="B9" s="12">
         <v>2857</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="12">
         <v>357</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="13">
         <v>2500</v>
       </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
